--- a/Input/Runfiles/Pricing/cmslegs.xlsx
+++ b/Input/Runfiles/Pricing/cmslegs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Input\Runfiles\Pricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CEB295-8160-4EDD-9038-5A2280BE0D4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05A940C-D2C7-44EC-AFF8-AA576492D827}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52CF6CF3-B954-4931-B2B0-A068B0EE93D2}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Dates</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Notional</t>
   </si>
   <si>
-    <t>Discount Curve</t>
-  </si>
-  <si>
     <t>EPEData</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>Forward Curve</t>
-  </si>
-  <si>
     <t>USD LIBOR3M OISSTRIPPED 31122019</t>
   </si>
   <si>
@@ -230,6 +224,15 @@
   </si>
   <si>
     <t>Forward Curve Freq</t>
+  </si>
+  <si>
+    <t>Forward Curve Swaprate</t>
+  </si>
+  <si>
+    <t>Discount Curve Leg</t>
+  </si>
+  <si>
+    <t>Discount Curve Swaprate</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -404,6 +407,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,7 +438,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="blp_column_header" xfId="2" xr:uid="{4FA6AC85-0AD3-40A2-8F4B-9B485A94F45A}"/>
@@ -751,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46186C0-3A2B-4A2A-A654-E69603C6CB05}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,57 +766,61 @@
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="7" width="9.88671875" customWidth="1"/>
     <col min="8" max="8" width="15.21875" customWidth="1"/>
-    <col min="9" max="14" width="15.6640625" customWidth="1"/>
-    <col min="15" max="15" width="19.44140625" customWidth="1"/>
+    <col min="9" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" customWidth="1"/>
+    <col min="14" max="15" width="18.109375" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="16" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
       <c r="O2" s="21"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -833,43 +840,46 @@
         <v>34</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="L3" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="N3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -898,28 +908,31 @@
         <v>-10000000</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K4" s="11">
         <v>5</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="22">
+        <v>41</v>
+      </c>
+      <c r="N4" s="12">
         <v>0.25</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D5" s="6"/>
       <c r="E5" s="5"/>
       <c r="F5" s="8"/>
@@ -931,9 +944,10 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O5" s="8"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D6" s="6"/>
       <c r="E6" s="5"/>
       <c r="F6" s="8"/>
@@ -945,9 +959,10 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O6" s="8"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
       <c r="F7" s="8"/>
@@ -959,9 +974,10 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O7" s="8"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
       <c r="F8" s="8"/>
@@ -973,9 +989,10 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O8" s="8"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
       <c r="F9" s="8"/>
@@ -987,9 +1004,10 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O9" s="8"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
       <c r="F10" s="8"/>
@@ -1001,9 +1019,10 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O10" s="8"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
       <c r="F11" s="8"/>
@@ -1015,9 +1034,10 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O11" s="8"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
       <c r="F12" s="8"/>
@@ -1029,9 +1049,10 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O12" s="8"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
       <c r="F13" s="8"/>
@@ -1043,9 +1064,10 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O13" s="8"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
       <c r="F14" s="8"/>
@@ -1057,9 +1079,10 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O14" s="8"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D15" s="6"/>
       <c r="E15" s="5"/>
       <c r="F15" s="8"/>
@@ -1071,9 +1094,10 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O15" s="8"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
       <c r="F16" s="8"/>
@@ -1085,9 +1109,10 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O16" s="8"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D17" s="6"/>
       <c r="E17" s="5"/>
       <c r="F17" s="8"/>
@@ -1099,9 +1124,10 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O17" s="8"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D18" s="6"/>
       <c r="E18" s="5"/>
       <c r="F18" s="8"/>
@@ -1113,9 +1139,10 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O18" s="8"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D19" s="6"/>
       <c r="E19" s="5"/>
       <c r="F19" s="8"/>
@@ -1127,9 +1154,10 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O19" s="8"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D20" s="6"/>
       <c r="E20" s="5"/>
       <c r="F20" s="8"/>
@@ -1141,9 +1169,10 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O20" s="8"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D21" s="6"/>
       <c r="E21" s="5"/>
       <c r="F21" s="8"/>
@@ -1155,9 +1184,10 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O21" s="8"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D22" s="6"/>
       <c r="E22" s="5"/>
       <c r="F22" s="8"/>
@@ -1169,9 +1199,10 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O22" s="8"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
       <c r="E23" s="5"/>
       <c r="F23" s="8"/>
@@ -1183,9 +1214,10 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="6"/>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O23" s="8"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D24" s="6"/>
       <c r="E24" s="5"/>
       <c r="F24" s="8"/>
@@ -1197,9 +1229,10 @@
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
-      <c r="O24" s="6"/>
-    </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O24" s="8"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D25" s="6"/>
       <c r="E25" s="5"/>
       <c r="F25" s="8"/>
@@ -1211,9 +1244,10 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
-      <c r="O25" s="6"/>
-    </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O25" s="8"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D26" s="6"/>
       <c r="E26" s="5"/>
       <c r="F26" s="8"/>
@@ -1225,9 +1259,10 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O26" s="8"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D27" s="6"/>
       <c r="E27" s="5"/>
       <c r="F27" s="8"/>
@@ -1239,9 +1274,10 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O27" s="8"/>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D28" s="6"/>
       <c r="E28" s="5"/>
       <c r="F28" s="8"/>
@@ -1253,9 +1289,10 @@
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="6"/>
-    </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O28" s="8"/>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D29" s="6"/>
       <c r="E29" s="5"/>
       <c r="F29" s="8"/>
@@ -1267,9 +1304,10 @@
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
-      <c r="O29" s="6"/>
-    </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O29" s="8"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D30" s="6"/>
       <c r="E30" s="5"/>
       <c r="F30" s="8"/>
@@ -1281,9 +1319,10 @@
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
-      <c r="O30" s="6"/>
-    </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O30" s="8"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
       <c r="E31" s="5"/>
       <c r="F31" s="8"/>
@@ -1295,9 +1334,10 @@
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="6"/>
-    </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O31" s="8"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D32" s="6"/>
       <c r="E32" s="5"/>
       <c r="F32" s="8"/>
@@ -1309,9 +1349,10 @@
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
-      <c r="O32" s="6"/>
-    </row>
-    <row r="33" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O32" s="8"/>
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D33" s="6"/>
       <c r="E33" s="5"/>
       <c r="F33" s="8"/>
@@ -1323,9 +1364,10 @@
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
-      <c r="O33" s="6"/>
-    </row>
-    <row r="34" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O33" s="8"/>
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D34" s="6"/>
       <c r="E34" s="5"/>
       <c r="F34" s="8"/>
@@ -1337,9 +1379,10 @@
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
-      <c r="O34" s="6"/>
-    </row>
-    <row r="35" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O34" s="8"/>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D35" s="6"/>
       <c r="E35" s="5"/>
       <c r="F35" s="8"/>
@@ -1351,9 +1394,10 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
-      <c r="O35" s="6"/>
-    </row>
-    <row r="36" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O35" s="8"/>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D36" s="6"/>
       <c r="E36" s="5"/>
       <c r="F36" s="8"/>
@@ -1365,9 +1409,10 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
-      <c r="O36" s="6"/>
-    </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O36" s="8"/>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D37" s="6"/>
       <c r="E37" s="5"/>
       <c r="F37" s="8"/>
@@ -1379,9 +1424,10 @@
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
-      <c r="O37" s="6"/>
-    </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O37" s="8"/>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D38" s="6"/>
       <c r="E38" s="5"/>
       <c r="F38" s="8"/>
@@ -1393,9 +1439,10 @@
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="6"/>
-    </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O38" s="8"/>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D39" s="6"/>
       <c r="E39" s="5"/>
       <c r="F39" s="8"/>
@@ -1407,9 +1454,10 @@
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
-      <c r="O39" s="6"/>
-    </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O39" s="8"/>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D40" s="6"/>
       <c r="E40" s="5"/>
       <c r="F40" s="8"/>
@@ -1421,9 +1469,10 @@
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
-      <c r="O40" s="6"/>
-    </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O40" s="8"/>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D41" s="6"/>
       <c r="E41" s="5"/>
       <c r="F41" s="8"/>
@@ -1435,9 +1484,10 @@
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
-      <c r="O41" s="6"/>
-    </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O41" s="8"/>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D42" s="6"/>
       <c r="E42" s="5"/>
       <c r="F42" s="8"/>
@@ -1449,9 +1499,10 @@
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
-      <c r="O42" s="6"/>
-    </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O42" s="8"/>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D43" s="6"/>
       <c r="E43" s="5"/>
       <c r="F43" s="8"/>
@@ -1463,9 +1514,10 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
-      <c r="O43" s="6"/>
-    </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O43" s="8"/>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D44" s="6"/>
       <c r="E44" s="5"/>
       <c r="F44" s="8"/>
@@ -1477,14 +1529,15 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
-      <c r="O44" s="6"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="P1:R2"/>
-    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="Q1:S2"/>
+    <mergeCell ref="E2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1527,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1538,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
